--- a/Ride Group Template.xlsx
+++ b/Ride Group Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/568bd6e1322fdf29/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen Lee\Documents\GitHub\JSA-Ride-Groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2826B073-C60D-48E5-B278-21E3819378BF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F74F0CF-7DEB-40DC-AE0E-2A98EABB2CF6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3F4AF8C-E471-4BDE-958A-C2B9B05D0B65}"/>
   </bookViews>
@@ -28,6 +28,122 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Providing Rides?</t>
+  </si>
+  <si>
+    <t>Car Size (including driver)</t>
+  </si>
+  <si>
+    <t>Drop Off</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>ERC</t>
+  </si>
+  <si>
+    <t>Village</t>
+  </si>
+  <si>
+    <t>Warren</t>
+  </si>
+  <si>
+    <t>La Regencia</t>
+  </si>
+  <si>
+    <t>I-House</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Sixth</t>
+  </si>
+  <si>
+    <t>Solazzo</t>
+  </si>
+  <si>
+    <t>Costa Verde</t>
+  </si>
+  <si>
+    <t>UTC</t>
+  </si>
+  <si>
+    <t>Person A</t>
+  </si>
+  <si>
+    <t>Person B</t>
+  </si>
+  <si>
+    <t>Person C</t>
+  </si>
+  <si>
+    <t>Person D</t>
+  </si>
+  <si>
+    <t>Person E</t>
+  </si>
+  <si>
+    <t>Person F</t>
+  </si>
+  <si>
+    <t>Person G</t>
+  </si>
+  <si>
+    <t>Person H</t>
+  </si>
+  <si>
+    <t>Person I</t>
+  </si>
+  <si>
+    <t>Person J</t>
+  </si>
+  <si>
+    <t>Person K</t>
+  </si>
+  <si>
+    <t>Person L</t>
+  </si>
+  <si>
+    <t>Person M</t>
+  </si>
+  <si>
+    <t>Person N</t>
+  </si>
+  <si>
+    <t>Person O</t>
+  </si>
+  <si>
+    <t>Person P</t>
+  </si>
+  <si>
+    <t>Person Q</t>
+  </si>
+  <si>
+    <t>Person R</t>
+  </si>
+  <si>
+    <t>Person S</t>
+  </si>
+  <si>
+    <t>Person T</t>
+  </si>
+  <si>
+    <t>Vons</t>
+  </si>
+  <si>
+    <t>Pines of La Jolla</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -61,8 +177,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,12 +496,309 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BFD76E-D6AC-4CE6-9C49-F3EFDF314D87}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>5</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1">
+        <v>7</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ride Group Template.xlsx
+++ b/Ride Group Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen Lee\Documents\GitHub\JSA-Ride-Groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F74F0CF-7DEB-40DC-AE0E-2A98EABB2CF6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07162131-018F-4642-9A42-81FAA18C1BA8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3F4AF8C-E471-4BDE-958A-C2B9B05D0B65}"/>
   </bookViews>

--- a/Ride Group Template.xlsx
+++ b/Ride Group Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen Lee\Documents\GitHub\JSA-Ride-Groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07162131-018F-4642-9A42-81FAA18C1BA8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D66B1AA-0363-450D-83E3-B1BE7503331D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3F4AF8C-E471-4BDE-958A-C2B9B05D0B65}"/>
   </bookViews>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Providing Rides?</t>
-  </si>
-  <si>
     <t>Car Size (including driver)</t>
   </si>
   <si>
@@ -60,9 +57,6 @@
     <t>La Regencia</t>
   </si>
   <si>
-    <t>I-House</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -142,6 +136,18 @@
   </si>
   <si>
     <t>Pines of La Jolla</t>
+  </si>
+  <si>
+    <t>Rides</t>
+  </si>
+  <si>
+    <t>International House</t>
+  </si>
+  <si>
+    <t>Person U</t>
+  </si>
+  <si>
+    <t>Preset rides?</t>
   </si>
 </sst>
 </file>
@@ -499,7 +505,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -508,6 +514,7 @@
     <col min="2" max="2" width="17.109375" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -515,99 +522,102 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
         <v>5</v>
@@ -617,75 +627,75 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1">
         <v>5</v>
@@ -695,10 +705,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
         <v>5</v>
@@ -708,23 +718,23 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1">
         <v>7</v>
@@ -734,66 +744,66 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" s="1"/>
     </row>

--- a/Ride Group Template.xlsx
+++ b/Ride Group Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen Lee\Documents\GitHub\JSA-Ride-Groups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D66B1AA-0363-450D-83E3-B1BE7503331D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F639C1-C89A-4924-9085-00022C2A5A88}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3F4AF8C-E471-4BDE-958A-C2B9B05D0B65}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="42">
   <si>
     <t>Name</t>
   </si>
@@ -147,7 +147,16 @@
     <t>Person U</t>
   </si>
   <si>
-    <t>Preset rides?</t>
+    <t>Preset rides there? (driver name)</t>
+  </si>
+  <si>
+    <t>Preset rides back? (driver name)</t>
+  </si>
+  <si>
+    <t>Only one way driver? (To or Back)</t>
+  </si>
+  <si>
+    <t>Only need ride one way? (To or Back)</t>
   </si>
 </sst>
 </file>
@@ -502,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75BFD76E-D6AC-4CE6-9C49-F3EFDF314D87}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -514,10 +523,12 @@
     <col min="2" max="2" width="17.109375" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="5" max="6" width="31.5546875" customWidth="1"/>
+    <col min="7" max="7" width="31.109375" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,8 +544,17 @@
       <c r="E1" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -546,8 +566,9 @@
         <v>5</v>
       </c>
       <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -559,8 +580,9 @@
         <v>6</v>
       </c>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -572,8 +594,9 @@
         <v>6</v>
       </c>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
@@ -585,8 +608,9 @@
         <v>6</v>
       </c>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -598,8 +622,9 @@
         <v>7</v>
       </c>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -611,8 +636,9 @@
         <v>36</v>
       </c>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -624,8 +650,9 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -637,8 +664,9 @@
         <v>4</v>
       </c>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -650,8 +678,9 @@
         <v>9</v>
       </c>
       <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -663,8 +692,9 @@
         <v>9</v>
       </c>
       <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
@@ -676,8 +706,9 @@
         <v>33</v>
       </c>
       <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -689,8 +720,9 @@
         <v>10</v>
       </c>
       <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
@@ -702,8 +734,9 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -715,8 +748,9 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
@@ -728,8 +762,9 @@
         <v>11</v>
       </c>
       <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>28</v>
       </c>
@@ -741,8 +776,9 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
@@ -754,8 +790,9 @@
         <v>9</v>
       </c>
       <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>30</v>
       </c>
@@ -767,8 +804,9 @@
         <v>10</v>
       </c>
       <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
@@ -780,8 +818,9 @@
         <v>12</v>
       </c>
       <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
@@ -793,8 +832,9 @@
         <v>34</v>
       </c>
       <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -806,6 +846,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
